--- a/LaboInsru/position/data.xlsx
+++ b/LaboInsru/position/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnau\Documents\GitHub\Academic\LaboInsru\position\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038CDDB-F451-4F06-A0BA-0F317D6A72B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F8443-7D5B-471C-AB90-EC8D48B51EF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="46080" windowHeight="21480" xr2:uid="{B295DECF-01BD-4365-A2B3-C3AC1600456C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="46080" windowHeight="21480" activeTab="1" xr2:uid="{B295DECF-01BD-4365-A2B3-C3AC1600456C}"/>
   </bookViews>
   <sheets>
     <sheet name="position" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>hauteur</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>rad</t>
-  </si>
-  <si>
-    <t>deg</t>
   </si>
   <si>
     <t>position</t>
@@ -52,7 +49,22 @@
     <t>positionV</t>
   </si>
   <si>
-    <t>tensionV</t>
+    <t>degTot</t>
+  </si>
+  <si>
+    <t>tensionTot</t>
+  </si>
+  <si>
+    <t>deg1</t>
+  </si>
+  <si>
+    <t>tension1</t>
+  </si>
+  <si>
+    <t>tension2</t>
+  </si>
+  <si>
+    <t>deg2</t>
   </si>
 </sst>
 </file>
@@ -4516,16 +4528,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>83276</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>494211</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>50619</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>684711</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4899</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4852,30 +4864,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57C5F7A-085D-463D-A7EC-C7D39B7CE96D}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -5572,10 +5584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6077946E-23BD-4FEC-A4D5-4F2A491EA003}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5585,25 +5597,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -5621,6 +5639,12 @@
         <f>DEGREES(C2)</f>
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>1.18</v>
+      </c>
+      <c r="I2">
+        <v>-3.5763343749973511</v>
+      </c>
       <c r="K2">
         <v>0</v>
       </c>
@@ -5651,6 +5675,12 @@
         <f>DEGREES(C3)</f>
         <v>0.11936603462520555</v>
       </c>
+      <c r="H3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I3">
+        <v>-3.4574173746235877</v>
+      </c>
       <c r="K3">
         <v>-1</v>
       </c>
@@ -5681,6 +5711,12 @@
         <f t="shared" ref="D4:D32" si="1">DEGREES(C4)</f>
         <v>0.23873103309890856</v>
       </c>
+      <c r="H4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I4">
+        <v>-3.3384705437643523</v>
+      </c>
       <c r="K4">
         <v>-2</v>
       </c>
@@ -5711,6 +5747,12 @@
         <f t="shared" si="1"/>
         <v>0.35809395932357113</v>
       </c>
+      <c r="H5">
+        <v>1.08</v>
+      </c>
+      <c r="I5">
+        <v>-3.2194948968528299</v>
+      </c>
       <c r="K5">
         <v>-3</v>
       </c>
@@ -5741,6 +5783,12 @@
         <f t="shared" si="1"/>
         <v>0.47745377730957739</v>
       </c>
+      <c r="H6">
+        <v>1.04</v>
+      </c>
+      <c r="I6">
+        <v>-3.1004914498077798</v>
+      </c>
       <c r="K6">
         <v>-4</v>
       </c>
@@ -5771,6 +5819,12 @@
         <f t="shared" si="1"/>
         <v>0.59680945122917706</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>-2.9814612199821919</v>
+      </c>
       <c r="K7">
         <v>-5</v>
       </c>
@@ -5801,6 +5855,12 @@
         <f t="shared" si="1"/>
         <v>0.71615994547040851</v>
       </c>
+      <c r="H8">
+        <v>0.96</v>
+      </c>
+      <c r="I8">
+        <v>-2.8624052261117479</v>
+      </c>
       <c r="K8">
         <v>-6</v>
       </c>
@@ -5831,6 +5891,12 @@
         <f t="shared" si="1"/>
         <v>0.83550422469099173</v>
       </c>
+      <c r="H9">
+        <v>0.96</v>
+      </c>
+      <c r="I9">
+        <v>-2.7433244882631134</v>
+      </c>
       <c r="K9">
         <v>-7</v>
       </c>
@@ -5861,6 +5927,12 @@
         <f t="shared" si="1"/>
         <v>0.95484125387218866</v>
       </c>
+      <c r="H10">
+        <v>0.9</v>
+      </c>
+      <c r="I10">
+        <v>-2.6242200277820564</v>
+      </c>
       <c r="K10">
         <v>-8</v>
       </c>
@@ -5891,6 +5963,12 @@
         <f t="shared" si="1"/>
         <v>1.0741699983726205</v>
       </c>
+      <c r="H11">
+        <v>0.88</v>
+      </c>
+      <c r="I11">
+        <v>-2.505092867241399</v>
+      </c>
       <c r="K11">
         <v>-9</v>
       </c>
@@ -5921,6 +5999,12 @@
         <f t="shared" si="1"/>
         <v>1.1934894239820351</v>
       </c>
+      <c r="H12">
+        <v>0.88</v>
+      </c>
+      <c r="I12">
+        <v>-2.3859440303888126</v>
+      </c>
       <c r="K12">
         <v>-10</v>
       </c>
@@ -5951,6 +6035,12 @@
         <f t="shared" si="1"/>
         <v>1.3127984969750188</v>
       </c>
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+      <c r="I13">
+        <v>-2.2667745420944621</v>
+      </c>
       <c r="K13">
         <v>-11</v>
       </c>
@@ -5981,6 +6071,12 @@
         <f t="shared" si="1"/>
         <v>1.4320961841646465</v>
       </c>
+      <c r="H14">
+        <v>0.76</v>
+      </c>
+      <c r="I14">
+        <v>-2.1475854282985032</v>
+      </c>
       <c r="K14">
         <v>-12</v>
       </c>
@@ -6011,6 +6107,12 @@
         <f t="shared" si="1"/>
         <v>1.5513814529560592</v>
       </c>
+      <c r="H15">
+        <v>0.74</v>
+      </c>
+      <c r="I15">
+        <v>-2.0283777159584453</v>
+      </c>
       <c r="K15">
         <v>-13</v>
       </c>
@@ -6041,6 +6143,12 @@
         <f t="shared" si="1"/>
         <v>1.6706532713999678</v>
       </c>
+      <c r="H16">
+        <v>0.68</v>
+      </c>
+      <c r="I16">
+        <v>-1.9091524329963763</v>
+      </c>
       <c r="K16">
         <v>-14</v>
       </c>
@@ -6071,6 +6179,12 @@
         <f t="shared" si="1"/>
         <v>1.7899106082460694</v>
       </c>
+      <c r="H17">
+        <v>0.68</v>
+      </c>
+      <c r="I17">
+        <v>-1.7899106082460694</v>
+      </c>
       <c r="K17">
         <v>-15</v>
       </c>
@@ -6101,6 +6215,12 @@
         <f t="shared" si="1"/>
         <v>1.9091524329963763</v>
       </c>
+      <c r="H18">
+        <v>0.62</v>
+      </c>
+      <c r="I18">
+        <v>-1.6706532713999678</v>
+      </c>
       <c r="K18">
         <v>-16</v>
       </c>
@@ -6131,6 +6251,12 @@
         <f t="shared" si="1"/>
         <v>2.0283777159584453</v>
       </c>
+      <c r="H19">
+        <v>0.6</v>
+      </c>
+      <c r="I19">
+        <v>-1.5513814529560592</v>
+      </c>
       <c r="K19">
         <v>-17</v>
       </c>
@@ -6161,6 +6287,12 @@
         <f t="shared" si="1"/>
         <v>2.1475854282985032</v>
       </c>
+      <c r="H20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I20">
+        <v>-1.4320961841646465</v>
+      </c>
       <c r="K20">
         <v>-18</v>
       </c>
@@ -6191,6 +6323,12 @@
         <f t="shared" si="1"/>
         <v>2.2667745420944621</v>
       </c>
+      <c r="H21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I21">
+        <v>-1.3127984969750188</v>
+      </c>
       <c r="K21">
         <v>-19</v>
       </c>
@@ -6221,6 +6359,12 @@
         <f t="shared" si="1"/>
         <v>2.3859440303888126</v>
       </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <v>-1.1934894239820351</v>
+      </c>
       <c r="K22">
         <v>-20</v>
       </c>
@@ -6251,6 +6395,12 @@
         <f t="shared" si="1"/>
         <v>2.505092867241399</v>
       </c>
+      <c r="H23">
+        <v>0.48</v>
+      </c>
+      <c r="I23">
+        <v>-1.0741699983726205</v>
+      </c>
       <c r="K23">
         <v>-21</v>
       </c>
@@ -6281,6 +6431,12 @@
         <f t="shared" si="1"/>
         <v>2.6242200277820564</v>
       </c>
+      <c r="H24">
+        <v>0.44</v>
+      </c>
+      <c r="I24">
+        <v>-0.95484125387218866</v>
+      </c>
       <c r="K24">
         <v>-22</v>
       </c>
@@ -6311,6 +6467,12 @@
         <f t="shared" si="1"/>
         <v>2.7433244882631134</v>
       </c>
+      <c r="H25">
+        <v>0.42</v>
+      </c>
+      <c r="I25">
+        <v>-0.83550422469099173</v>
+      </c>
       <c r="K25">
         <v>-23</v>
       </c>
@@ -6341,6 +6503,12 @@
         <f t="shared" si="1"/>
         <v>2.8624052261117479</v>
       </c>
+      <c r="H26">
+        <v>0.4</v>
+      </c>
+      <c r="I26">
+        <v>-0.71615994547040851</v>
+      </c>
       <c r="K26">
         <v>-24</v>
       </c>
@@ -6371,6 +6539,12 @@
         <f t="shared" si="1"/>
         <v>2.9814612199821919</v>
       </c>
+      <c r="H27">
+        <v>0.36</v>
+      </c>
+      <c r="I27">
+        <v>-0.59680945122917706</v>
+      </c>
       <c r="K27">
         <v>-25</v>
       </c>
@@ -6401,6 +6575,12 @@
         <f t="shared" si="1"/>
         <v>3.1004914498077798</v>
       </c>
+      <c r="H28">
+        <v>0.32</v>
+      </c>
+      <c r="I28">
+        <v>-0.47745377730957739</v>
+      </c>
       <c r="K28">
         <v>-26</v>
       </c>
@@ -6431,6 +6611,12 @@
         <f t="shared" si="1"/>
         <v>3.2194948968528299</v>
       </c>
+      <c r="H29">
+        <v>0.3</v>
+      </c>
+      <c r="I29">
+        <v>-0.35809395932357113</v>
+      </c>
       <c r="K29">
         <v>-27</v>
       </c>
@@ -6461,6 +6647,12 @@
         <f t="shared" si="1"/>
         <v>3.3384705437643523</v>
       </c>
+      <c r="H30">
+        <v>0.24</v>
+      </c>
+      <c r="I30">
+        <v>-0.23873103309890856</v>
+      </c>
       <c r="K30">
         <v>-28</v>
       </c>
@@ -6491,6 +6683,12 @@
         <f t="shared" si="1"/>
         <v>3.4574173746235877</v>
       </c>
+      <c r="H31">
+        <v>0.24</v>
+      </c>
+      <c r="I31">
+        <v>-0.11936603462520555</v>
+      </c>
       <c r="K31">
         <v>-29</v>
       </c>
@@ -6521,6 +6719,12 @@
         <f t="shared" si="1"/>
         <v>3.5763343749973511</v>
       </c>
+      <c r="H32">
+        <v>0.16</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
       <c r="K32">
         <v>-30</v>
       </c>
@@ -6536,7 +6740,250 @@
         <v>-3.5763343749973511</v>
       </c>
     </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>0.11936603462520555</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>0.24</v>
+      </c>
+      <c r="I34">
+        <v>0.23873103309890856</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>0.26</v>
+      </c>
+      <c r="I35">
+        <v>0.35809395932357113</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I36">
+        <v>0.47745377730957739</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>0.3</v>
+      </c>
+      <c r="I37">
+        <v>0.59680945122917706</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>0.32</v>
+      </c>
+      <c r="I38">
+        <v>0.71615994547040851</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>0.34</v>
+      </c>
+      <c r="I39">
+        <v>0.83550422469099173</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>0.34</v>
+      </c>
+      <c r="I40">
+        <v>0.95484125387218866</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>0.4</v>
+      </c>
+      <c r="I41">
+        <v>1.0741699983726205</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>0.44</v>
+      </c>
+      <c r="I42">
+        <v>1.1934894239820351</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>0.48</v>
+      </c>
+      <c r="I43">
+        <v>1.3127984969750188</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <v>1.4320961841646465</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I45">
+        <v>1.5513814529560592</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>0.64</v>
+      </c>
+      <c r="I46">
+        <v>1.6706532713999678</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>0.64</v>
+      </c>
+      <c r="I47">
+        <v>1.7899106082460694</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>0.64</v>
+      </c>
+      <c r="I48">
+        <v>1.9091524329963763</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>0.72</v>
+      </c>
+      <c r="I49">
+        <v>2.0283777159584453</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>0.74</v>
+      </c>
+      <c r="I50">
+        <v>2.1475854282985032</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>0.76</v>
+      </c>
+      <c r="I51">
+        <v>2.2667745420944621</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>0.8</v>
+      </c>
+      <c r="I52">
+        <v>2.3859440303888126</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>0.8</v>
+      </c>
+      <c r="I53">
+        <v>2.505092867241399</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>0.88</v>
+      </c>
+      <c r="I54">
+        <v>2.6242200277820564</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>0.9</v>
+      </c>
+      <c r="I55">
+        <v>2.7433244882631134</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>0.92</v>
+      </c>
+      <c r="I56">
+        <v>2.8624052261117479</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>0.98</v>
+      </c>
+      <c r="I57">
+        <v>2.9814612199821919</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>3.1004914498077798</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>1.08</v>
+      </c>
+      <c r="I59">
+        <v>3.2194948968528299</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I60">
+        <v>3.3384705437643523</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I61">
+        <v>3.4574173746235877</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>1.2</v>
+      </c>
+      <c r="I62">
+        <v>3.5763343749973511</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="H2:I32">
+    <sortCondition ref="I32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
